--- a/Configs/Role.xlsx
+++ b/Configs/Role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="10704" windowHeight="7044"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
     <t>5,6</t>
   </si>
   <si>
-    <t>文聿</t>
+    <t>“文聿”</t>
   </si>
   <si>
     <t>0,0,0</t>
@@ -1089,7 +1089,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelRow="4" outlineLevelCol="4"/>
